--- a/raw_excel/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
+++ b/raw_excel/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natthawut\Desktop\rpa-final-project\raw_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poksu\Documents\Work\KMITL\RPA\After_midterm\RPA_Final_Project\raw_excel\2563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4184A9BE-1541-45B9-90EE-E2BD9711231C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B10733-7B5F-4354-AEAC-33C692E1E63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="10584" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Total Report" sheetId="2" r:id="rId1"/>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>Timestamp</t>
   </si>
@@ -81,12 +80,6 @@
   </si>
   <si>
     <t>09</t>
-  </si>
-  <si>
-    <t>ยอดขาย(บาท)</t>
-  </si>
-  <si>
-    <t>รวม</t>
   </si>
 </sst>
 </file>
@@ -136,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -348,66 +341,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC5D62D-04A4-4F73-AE76-A709E46C8A19}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>30800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>69700</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
